--- a/Exercicio2/primos_results_10e6.xlsx
+++ b/Exercicio2/primos_results_10e6.xlsx
@@ -432,16 +432,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.000159</v>
+        <v>0.000158</v>
       </c>
       <c r="E2">
-        <v>0.315992</v>
+        <v>0.300338</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.316151</v>
+        <v>0.300497</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -458,13 +458,13 @@
         <v>3.4E-05</v>
       </c>
       <c r="E3">
-        <v>0.296405</v>
+        <v>0.296978</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.296439</v>
+        <v>0.297013</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -478,16 +478,16 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>3.5E-05</v>
+        <v>3.3E-05</v>
       </c>
       <c r="E4">
-        <v>0.296945</v>
+        <v>0.298187</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.296979</v>
+        <v>0.29822</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,16 +501,16 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>3.4E-05</v>
+        <v>3.5E-05</v>
       </c>
       <c r="E5">
-        <v>0.296876</v>
+        <v>0.300219</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.296911</v>
+        <v>0.300253</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -524,16 +524,16 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>3.3E-05</v>
+        <v>3.6E-05</v>
       </c>
       <c r="E6">
-        <v>0.305883</v>
+        <v>0.310343</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.305916</v>
+        <v>0.310379</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -550,13 +550,13 @@
         <v>3.6E-05</v>
       </c>
       <c r="E7">
-        <v>0.301478</v>
+        <v>0.305961</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.301514</v>
+        <v>0.305997</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -570,16 +570,16 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3.5E-05</v>
+        <v>3.7E-05</v>
       </c>
       <c r="E8">
-        <v>0.298449</v>
+        <v>0.30436</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.298485</v>
+        <v>0.304397</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -596,13 +596,13 @@
         <v>3.4E-05</v>
       </c>
       <c r="E9">
-        <v>0.295234</v>
+        <v>0.301549</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.295268</v>
+        <v>0.301584</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -616,16 +616,16 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>4.1E-05</v>
+        <v>3.4E-05</v>
       </c>
       <c r="E10">
-        <v>0.299239</v>
+        <v>0.295757</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.29928</v>
+        <v>0.295791</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -642,13 +642,13 @@
         <v>3.5E-05</v>
       </c>
       <c r="E11">
-        <v>0.302246</v>
+        <v>0.295803</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.302282</v>
+        <v>0.295838</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -662,16 +662,16 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>5.6E-05</v>
+        <v>4.8E-05</v>
       </c>
       <c r="E12">
-        <v>0.161517</v>
+        <v>0.162024</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.161573</v>
+        <v>0.162072</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -685,16 +685,16 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>5.2E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="E13">
-        <v>0.161458</v>
+        <v>0.160357</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.16151</v>
+        <v>0.160407</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -708,16 +708,16 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <v>6.8E-05</v>
+        <v>5.4E-05</v>
       </c>
       <c r="E14">
-        <v>0.160838</v>
+        <v>0.159372</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.160906</v>
+        <v>0.159426</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -731,16 +731,16 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>6.8E-05</v>
+        <v>5.1E-05</v>
       </c>
       <c r="E15">
-        <v>0.159267</v>
+        <v>0.162482</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.159335</v>
+        <v>0.162532</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -757,13 +757,13 @@
         <v>5.7E-05</v>
       </c>
       <c r="E16">
-        <v>0.161271</v>
+        <v>0.163849</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.161328</v>
+        <v>0.163906</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -777,16 +777,16 @@
         <v>6</v>
       </c>
       <c r="D17">
-        <v>5E-05</v>
+        <v>5.1E-05</v>
       </c>
       <c r="E17">
-        <v>0.16201</v>
+        <v>0.161625</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.162061</v>
+        <v>0.161677</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -800,16 +800,16 @@
         <v>7</v>
       </c>
       <c r="D18">
-        <v>6E-05</v>
+        <v>5.5E-05</v>
       </c>
       <c r="E18">
-        <v>0.159612</v>
+        <v>0.16016</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.159672</v>
+        <v>0.160215</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -823,16 +823,16 @@
         <v>8</v>
       </c>
       <c r="D19">
-        <v>5.1E-05</v>
+        <v>7.1E-05</v>
       </c>
       <c r="E19">
-        <v>0.160647</v>
+        <v>0.16072</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.160699</v>
+        <v>0.160791</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -846,16 +846,16 @@
         <v>9</v>
       </c>
       <c r="D20">
-        <v>5.2E-05</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="E20">
-        <v>0.162106</v>
+        <v>0.160076</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.162157</v>
+        <v>0.160146</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -869,16 +869,16 @@
         <v>10</v>
       </c>
       <c r="D21">
-        <v>5.3E-05</v>
+        <v>5.4E-05</v>
       </c>
       <c r="E21">
-        <v>0.160101</v>
+        <v>0.161942</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.160154</v>
+        <v>0.161996</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -892,16 +892,16 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>8.3E-05</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="E22">
-        <v>0.105196</v>
+        <v>0.10532</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.105279</v>
+        <v>0.10541</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -915,16 +915,16 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>8.4E-05</v>
+        <v>9.1E-05</v>
       </c>
       <c r="E23">
-        <v>0.10761</v>
+        <v>0.107003</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.107694</v>
+        <v>0.107094</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -938,16 +938,16 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <v>9.899999999999999E-05</v>
+        <v>8.500000000000001E-05</v>
       </c>
       <c r="E24">
-        <v>0.105777</v>
+        <v>0.107134</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.105877</v>
+        <v>0.10722</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -961,16 +961,16 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>9.000000000000001E-05</v>
+        <v>8.2E-05</v>
       </c>
       <c r="E25">
-        <v>0.106247</v>
+        <v>0.106185</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.106338</v>
+        <v>0.106267</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -984,16 +984,16 @@
         <v>5</v>
       </c>
       <c r="D26">
-        <v>8.899999999999999E-05</v>
+        <v>8.7E-05</v>
       </c>
       <c r="E26">
-        <v>0.106359</v>
+        <v>0.108144</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.106448</v>
+        <v>0.108231</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1010,13 +1010,13 @@
         <v>8.6E-05</v>
       </c>
       <c r="E27">
-        <v>0.103766</v>
+        <v>0.112646</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0.103852</v>
+        <v>0.112732</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1030,16 +1030,16 @@
         <v>7</v>
       </c>
       <c r="D28">
-        <v>8.899999999999999E-05</v>
+        <v>9.7E-05</v>
       </c>
       <c r="E28">
-        <v>0.102773</v>
+        <v>0.108461</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0.102862</v>
+        <v>0.108558</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1053,16 +1053,16 @@
         <v>8</v>
       </c>
       <c r="D29">
-        <v>9.3E-05</v>
+        <v>8.4E-05</v>
       </c>
       <c r="E29">
-        <v>0.106673</v>
+        <v>0.104025</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0.106766</v>
+        <v>0.104109</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1076,16 +1076,16 @@
         <v>9</v>
       </c>
       <c r="D30">
-        <v>8.6E-05</v>
+        <v>8.8E-05</v>
       </c>
       <c r="E30">
-        <v>0.107184</v>
+        <v>0.109175</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0.10727</v>
+        <v>0.109263</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1099,16 +1099,16 @@
         <v>10</v>
       </c>
       <c r="D31">
-        <v>8.3E-05</v>
+        <v>8.500000000000001E-05</v>
       </c>
       <c r="E31">
-        <v>0.106225</v>
+        <v>0.113916</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0.106308</v>
+        <v>0.114001</v>
       </c>
     </row>
   </sheetData>
